--- a/data/Mappings/MAPPINGS_RI.xlsx
+++ b/data/Mappings/MAPPINGS_RI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca-my.sharepoint.com/personal/marin_pellan_polymtl_ca/Documents/POST_DOC/CODE/regionalized_lci_mineral/data/Mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="518" documentId="13_ncr:1_{86B1AFA7-220F-42C0-B24A-CC1791C75D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B93559EE-D263-4CD9-BE5E-674CBB1FE408}"/>
+  <xr:revisionPtr revIDLastSave="520" documentId="13_ncr:1_{86B1AFA7-220F-42C0-B24A-CC1791C75D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8481A55-B024-4AA2-804E-41C0858C2B81}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="7" r:id="rId1"/>
@@ -2357,11 +2357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M396" sqref="M396"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2418,7 +2417,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>497</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>497</v>
       </c>
@@ -2524,7 +2523,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>497</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>497</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>497</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>497</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>497</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>497</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>497</v>
       </c>
@@ -2919,7 +2918,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>497</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>497</v>
       </c>
@@ -2989,7 +2988,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>497</v>
       </c>
@@ -3024,7 +3023,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>497</v>
       </c>
@@ -3059,7 +3058,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>497</v>
       </c>
@@ -3094,7 +3093,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>497</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>497</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>497</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>497</v>
       </c>
@@ -3234,7 +3233,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>497</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>497</v>
       </c>
@@ -3304,7 +3303,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>497</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>497</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>497</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>497</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>497</v>
       </c>
@@ -3479,7 +3478,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>497</v>
       </c>
@@ -3514,7 +3513,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>497</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>497</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>497</v>
       </c>
@@ -3619,7 +3618,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>497</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>497</v>
       </c>
@@ -3689,7 +3688,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>497</v>
       </c>
@@ -3724,7 +3723,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>497</v>
       </c>
@@ -3759,7 +3758,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>497</v>
       </c>
@@ -3794,7 +3793,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>497</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>497</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>497</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>497</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>497</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>497</v>
       </c>
@@ -4004,7 +4003,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>497</v>
       </c>
@@ -4039,7 +4038,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>497</v>
       </c>
@@ -4074,7 +4073,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>497</v>
       </c>
@@ -4109,7 +4108,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>497</v>
       </c>
@@ -4144,7 +4143,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>497</v>
       </c>
@@ -4179,7 +4178,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>497</v>
       </c>
@@ -4214,7 +4213,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>497</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>497</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>497</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>497</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>497</v>
       </c>
@@ -4389,7 +4388,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>497</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>497</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>497</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>497</v>
       </c>
@@ -4529,7 +4528,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>497</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>497</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>497</v>
       </c>
@@ -4634,7 +4633,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>497</v>
       </c>
@@ -4669,7 +4668,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>497</v>
       </c>
@@ -4704,7 +4703,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>497</v>
       </c>
@@ -4739,7 +4738,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>497</v>
       </c>
@@ -4774,7 +4773,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>497</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>497</v>
       </c>
@@ -4844,7 +4843,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>497</v>
       </c>
@@ -4879,7 +4878,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>497</v>
       </c>
@@ -4914,7 +4913,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>497</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>497</v>
       </c>
@@ -4984,7 +4983,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>497</v>
       </c>
@@ -5019,7 +5018,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>497</v>
       </c>
@@ -5054,7 +5053,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>497</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>497</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>497</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>497</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>497</v>
       </c>
@@ -5229,7 +5228,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>497</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="s">
         <v>497</v>
       </c>
@@ -5297,7 +5296,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
         <v>497</v>
       </c>
@@ -5332,7 +5331,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
         <v>497</v>
       </c>
@@ -5367,7 +5366,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
         <v>497</v>
       </c>
@@ -5402,7 +5401,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="s">
         <v>497</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
         <v>497</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="s">
         <v>497</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="s">
         <v>497</v>
       </c>
@@ -5542,7 +5541,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>497</v>
       </c>
@@ -5577,7 +5576,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>497</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>497</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>497</v>
       </c>
@@ -5682,7 +5681,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>497</v>
       </c>
@@ -5717,7 +5716,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>497</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>497</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>497</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>497</v>
       </c>
@@ -5857,7 +5856,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>497</v>
       </c>
@@ -5892,7 +5891,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>497</v>
       </c>
@@ -5927,7 +5926,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>497</v>
       </c>
@@ -5962,7 +5961,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>497</v>
       </c>
@@ -5997,7 +5996,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>497</v>
       </c>
@@ -6032,7 +6031,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>497</v>
       </c>
@@ -6065,7 +6064,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>497</v>
       </c>
@@ -6100,7 +6099,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
         <v>497</v>
       </c>
@@ -6135,7 +6134,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="s">
         <v>497</v>
       </c>
@@ -6170,7 +6169,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="13" t="s">
         <v>497</v>
       </c>
@@ -6205,7 +6204,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="s">
         <v>497</v>
       </c>
@@ -6240,7 +6239,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="13" t="s">
         <v>497</v>
       </c>
@@ -6275,7 +6274,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="s">
         <v>497</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>497</v>
       </c>
@@ -6345,7 +6344,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>497</v>
       </c>
@@ -6380,7 +6379,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>497</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>497</v>
       </c>
@@ -6450,7 +6449,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>497</v>
       </c>
@@ -6485,7 +6484,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>497</v>
       </c>
@@ -6518,7 +6517,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>497</v>
       </c>
@@ -6551,7 +6550,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>497</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>497</v>
       </c>
@@ -6617,7 +6616,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>497</v>
       </c>
@@ -6650,7 +6649,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>497</v>
       </c>
@@ -6683,7 +6682,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="s">
         <v>497</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="13" t="s">
         <v>497</v>
       </c>
@@ -6753,7 +6752,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="s">
         <v>497</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="s">
         <v>497</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="128" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="13" t="s">
         <v>497</v>
       </c>
@@ -6858,7 +6857,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="13" t="s">
         <v>497</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="13" t="s">
         <v>497</v>
       </c>
@@ -6928,7 +6927,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="13" t="s">
         <v>497</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="s">
         <v>497</v>
       </c>
@@ -6998,7 +6997,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="13" t="s">
         <v>497</v>
       </c>
@@ -7033,7 +7032,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="13" t="s">
         <v>497</v>
       </c>
@@ -7068,7 +7067,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="13" t="s">
         <v>497</v>
       </c>
@@ -7103,7 +7102,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="13" t="s">
         <v>497</v>
       </c>
@@ -7138,7 +7137,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="s">
         <v>497</v>
       </c>
@@ -7173,7 +7172,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>497</v>
       </c>
@@ -7208,7 +7207,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>497</v>
       </c>
@@ -7243,7 +7242,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>497</v>
       </c>
@@ -7278,7 +7277,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>497</v>
       </c>
@@ -7313,7 +7312,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="13" t="s">
         <v>497</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>497</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>497</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>497</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="13" t="s">
         <v>497</v>
       </c>
@@ -7494,7 +7493,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="13" t="s">
         <v>497</v>
       </c>
@@ -7532,7 +7531,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="13" t="s">
         <v>497</v>
       </c>
@@ -7570,7 +7569,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="13" t="s">
         <v>497</v>
       </c>
@@ -7608,7 +7607,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="150" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="13" t="s">
         <v>497</v>
       </c>
@@ -7646,7 +7645,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="13" t="s">
         <v>497</v>
       </c>
@@ -7684,7 +7683,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="13" t="s">
         <v>497</v>
       </c>
@@ -7722,7 +7721,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="153" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="13" t="s">
         <v>497</v>
       </c>
@@ -7760,7 +7759,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="13" t="s">
         <v>497</v>
       </c>
@@ -7798,7 +7797,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="13" t="s">
         <v>497</v>
       </c>
@@ -7836,7 +7835,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="156" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="s">
         <v>497</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="13" t="s">
         <v>497</v>
       </c>
@@ -7912,7 +7911,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="158" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="13" t="s">
         <v>497</v>
       </c>
@@ -7950,7 +7949,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>497</v>
       </c>
@@ -7985,7 +7984,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>497</v>
       </c>
@@ -8020,7 +8019,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>497</v>
       </c>
@@ -8055,7 +8054,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>497</v>
       </c>
@@ -8090,7 +8089,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>497</v>
       </c>
@@ -8125,7 +8124,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>497</v>
       </c>
@@ -8160,7 +8159,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>497</v>
       </c>
@@ -8195,7 +8194,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>497</v>
       </c>
@@ -8230,7 +8229,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>497</v>
       </c>
@@ -8265,7 +8264,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="168" spans="1:12" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
         <v>497</v>
       </c>
@@ -8291,7 +8290,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="169" spans="1:12" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="s">
         <v>497</v>
       </c>
@@ -8317,7 +8316,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>497</v>
       </c>
@@ -8352,7 +8351,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>497</v>
       </c>
@@ -8387,7 +8386,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>497</v>
       </c>
@@ -8422,7 +8421,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>497</v>
       </c>
@@ -8457,7 +8456,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>497</v>
       </c>
@@ -8492,7 +8491,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>497</v>
       </c>
@@ -8527,7 +8526,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>497</v>
       </c>
@@ -8562,7 +8561,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>497</v>
       </c>
@@ -8597,7 +8596,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>497</v>
       </c>
@@ -8632,7 +8631,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>497</v>
       </c>
@@ -8667,7 +8666,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>497</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>497</v>
       </c>
@@ -8737,7 +8736,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>497</v>
       </c>
@@ -8772,7 +8771,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="183" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="13" t="s">
         <v>497</v>
       </c>
@@ -8807,7 +8806,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="184" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="13" t="s">
         <v>497</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="s">
         <v>497</v>
       </c>
@@ -8877,7 +8876,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="186" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
         <v>497</v>
       </c>
@@ -8912,7 +8911,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="s">
         <v>497</v>
       </c>
@@ -8947,7 +8946,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>497</v>
       </c>
@@ -8982,7 +8981,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>497</v>
       </c>
@@ -9017,7 +9016,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>497</v>
       </c>
@@ -9052,7 +9051,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>497</v>
       </c>
@@ -9087,7 +9086,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>497</v>
       </c>
@@ -9122,7 +9121,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>497</v>
       </c>
@@ -9157,7 +9156,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>497</v>
       </c>
@@ -9192,7 +9191,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>497</v>
       </c>
@@ -9227,7 +9226,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>497</v>
       </c>
@@ -9262,7 +9261,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>497</v>
       </c>
@@ -9297,7 +9296,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>497</v>
       </c>
@@ -9332,7 +9331,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>497</v>
       </c>
@@ -9367,7 +9366,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>497</v>
       </c>
@@ -9402,7 +9401,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>497</v>
       </c>
@@ -9437,7 +9436,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>497</v>
       </c>
@@ -9472,7 +9471,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>497</v>
       </c>
@@ -9507,7 +9506,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>497</v>
       </c>
@@ -9542,7 +9541,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>497</v>
       </c>
@@ -9577,7 +9576,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>497</v>
       </c>
@@ -9612,7 +9611,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>497</v>
       </c>
@@ -9647,7 +9646,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>497</v>
       </c>
@@ -9682,7 +9681,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>497</v>
       </c>
@@ -9717,7 +9716,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>497</v>
       </c>
@@ -9752,7 +9751,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>497</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>497</v>
       </c>
@@ -9822,7 +9821,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>497</v>
       </c>
@@ -9857,7 +9856,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>497</v>
       </c>
@@ -9892,7 +9891,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>497</v>
       </c>
@@ -9927,7 +9926,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>497</v>
       </c>
@@ -9962,7 +9961,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="217" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="13" t="s">
         <v>497</v>
       </c>
@@ -9997,7 +9996,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="218" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="13" t="s">
         <v>497</v>
       </c>
@@ -10032,7 +10031,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="219" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="13" t="s">
         <v>497</v>
       </c>
@@ -10067,7 +10066,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="220" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="13" t="s">
         <v>497</v>
       </c>
@@ -10102,7 +10101,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="221" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="13" t="s">
         <v>497</v>
       </c>
@@ -10137,7 +10136,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="222" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="13" t="s">
         <v>497</v>
       </c>
@@ -10172,7 +10171,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="223" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="13" t="s">
         <v>497</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="224" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A224" s="13" t="s">
         <v>497</v>
       </c>
@@ -10242,7 +10241,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="225" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="13" t="s">
         <v>497</v>
       </c>
@@ -10277,7 +10276,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>497</v>
       </c>
@@ -10312,7 +10311,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>497</v>
       </c>
@@ -10347,7 +10346,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>497</v>
       </c>
@@ -10382,7 +10381,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>497</v>
       </c>
@@ -10417,7 +10416,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>497</v>
       </c>
@@ -10452,7 +10451,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>497</v>
       </c>
@@ -10487,7 +10486,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>497</v>
       </c>
@@ -10522,7 +10521,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>497</v>
       </c>
@@ -10557,7 +10556,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="234" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" s="13" t="s">
         <v>497</v>
       </c>
@@ -10592,7 +10591,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="235" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="13" t="s">
         <v>497</v>
       </c>
@@ -10627,7 +10626,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="236" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="13" t="s">
         <v>497</v>
       </c>
@@ -10662,7 +10661,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="237" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="13" t="s">
         <v>497</v>
       </c>
@@ -10697,7 +10696,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="238" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" s="13" t="s">
         <v>497</v>
       </c>
@@ -10732,7 +10731,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="239" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" s="13" t="s">
         <v>497</v>
       </c>
@@ -10767,7 +10766,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="240" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="13" t="s">
         <v>497</v>
       </c>
@@ -10802,7 +10801,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="241" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" s="13" t="s">
         <v>497</v>
       </c>
@@ -10837,7 +10836,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>497</v>
       </c>
@@ -10872,7 +10871,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>497</v>
       </c>
@@ -10907,7 +10906,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>497</v>
       </c>
@@ -10942,7 +10941,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>497</v>
       </c>
@@ -10977,7 +10976,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>497</v>
       </c>
@@ -11012,7 +11011,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>497</v>
       </c>
@@ -11047,7 +11046,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>497</v>
       </c>
@@ -11082,7 +11081,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>497</v>
       </c>
@@ -11117,7 +11116,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="250" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" s="13" t="s">
         <v>497</v>
       </c>
@@ -11152,7 +11151,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="251" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" s="13" t="s">
         <v>497</v>
       </c>
@@ -11187,7 +11186,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="252" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" s="13" t="s">
         <v>497</v>
       </c>
@@ -11222,7 +11221,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="253" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A253" s="13" t="s">
         <v>497</v>
       </c>
@@ -11257,7 +11256,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="254" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A254" s="13" t="s">
         <v>497</v>
       </c>
@@ -11292,7 +11291,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="255" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A255" s="13" t="s">
         <v>497</v>
       </c>
@@ -11327,7 +11326,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="256" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A256" s="13" t="s">
         <v>497</v>
       </c>
@@ -11362,7 +11361,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="257" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" s="13" t="s">
         <v>497</v>
       </c>
@@ -11397,7 +11396,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>497</v>
       </c>
@@ -11432,7 +11431,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>497</v>
       </c>
@@ -11467,7 +11466,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>497</v>
       </c>
@@ -11502,7 +11501,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="261" spans="1:12" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A261" s="9" t="s">
         <v>497</v>
       </c>
@@ -11526,7 +11525,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>497</v>
       </c>
@@ -11561,7 +11560,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>497</v>
       </c>
@@ -11596,7 +11595,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>497</v>
       </c>
@@ -11631,7 +11630,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>497</v>
       </c>
@@ -11666,7 +11665,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>497</v>
       </c>
@@ -11701,7 +11700,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>497</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>497</v>
       </c>
@@ -11771,7 +11770,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>497</v>
       </c>
@@ -11806,7 +11805,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="270" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A270" s="13" t="s">
         <v>497</v>
       </c>
@@ -11841,7 +11840,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="271" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A271" s="13" t="s">
         <v>497</v>
       </c>
@@ -11876,7 +11875,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="272" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A272" s="13" t="s">
         <v>497</v>
       </c>
@@ -11911,7 +11910,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="273" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A273" s="13" t="s">
         <v>497</v>
       </c>
@@ -11946,7 +11945,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="274" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A274" s="13" t="s">
         <v>497</v>
       </c>
@@ -11981,7 +11980,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="275" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A275" s="13" t="s">
         <v>497</v>
       </c>
@@ -12016,7 +12015,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>497</v>
       </c>
@@ -12051,7 +12050,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>497</v>
       </c>
@@ -12086,7 +12085,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>497</v>
       </c>
@@ -12159,7 +12158,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>497</v>
       </c>
@@ -12194,7 +12193,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>497</v>
       </c>
@@ -12229,7 +12228,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>497</v>
       </c>
@@ -12264,7 +12263,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>497</v>
       </c>
@@ -12299,7 +12298,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>497</v>
       </c>
@@ -12334,7 +12333,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>497</v>
       </c>
@@ -12369,7 +12368,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>497</v>
       </c>
@@ -12404,7 +12403,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>497</v>
       </c>
@@ -12437,7 +12436,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>497</v>
       </c>
@@ -12475,7 +12474,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="289" spans="1:12" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" s="9" t="s">
         <v>497</v>
       </c>
@@ -12498,7 +12497,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="290" spans="1:12" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A290" s="15" t="s">
         <v>497</v>
       </c>
@@ -12536,7 +12535,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="291" spans="1:12" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" s="15" t="s">
         <v>497</v>
       </c>
@@ -12574,7 +12573,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="292" spans="1:12" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" s="15" t="s">
         <v>497</v>
       </c>
@@ -12612,7 +12611,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="293" spans="1:12" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" s="15" t="s">
         <v>497</v>
       </c>
@@ -12650,7 +12649,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="294" spans="1:12" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" s="15" t="s">
         <v>497</v>
       </c>
@@ -12688,7 +12687,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="295" spans="1:12" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" s="9" t="s">
         <v>497</v>
       </c>
@@ -12712,7 +12711,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>497</v>
       </c>
@@ -12747,7 +12746,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>497</v>
       </c>
@@ -12782,7 +12781,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>497</v>
       </c>
@@ -12817,7 +12816,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>497</v>
       </c>
@@ -12852,7 +12851,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>497</v>
       </c>
@@ -12887,7 +12886,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>497</v>
       </c>
@@ -12922,7 +12921,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>497</v>
       </c>
@@ -12957,7 +12956,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>497</v>
       </c>
@@ -12992,7 +12991,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>497</v>
       </c>
@@ -13179,7 +13178,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>497</v>
       </c>
@@ -13214,7 +13213,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>497</v>
       </c>
@@ -13249,7 +13248,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>497</v>
       </c>
@@ -13282,7 +13281,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>497</v>
       </c>
@@ -13315,7 +13314,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>497</v>
       </c>
@@ -13350,7 +13349,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>497</v>
       </c>
@@ -13385,7 +13384,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>497</v>
       </c>
@@ -13420,7 +13419,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>497</v>
       </c>
@@ -13455,7 +13454,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>497</v>
       </c>
@@ -13716,7 +13715,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>497</v>
       </c>
@@ -13754,7 +13753,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>497</v>
       </c>
@@ -13789,7 +13788,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>497</v>
       </c>
@@ -13824,7 +13823,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>497</v>
       </c>
@@ -13859,7 +13858,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>497</v>
       </c>
@@ -13894,7 +13893,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>497</v>
       </c>
@@ -13929,7 +13928,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>497</v>
       </c>
@@ -13964,7 +13963,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>497</v>
       </c>
@@ -13999,7 +13998,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="332" spans="1:12" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A332" s="9" t="s">
         <v>497</v>
       </c>
@@ -14022,7 +14021,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>497</v>
       </c>
@@ -14057,7 +14056,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>497</v>
       </c>
@@ -14092,7 +14091,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>497</v>
       </c>
@@ -14127,7 +14126,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>497</v>
       </c>
@@ -14162,7 +14161,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>497</v>
       </c>
@@ -14197,7 +14196,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>497</v>
       </c>
@@ -14232,7 +14231,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>497</v>
       </c>
@@ -14267,7 +14266,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>497</v>
       </c>
@@ -14302,7 +14301,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>497</v>
       </c>
@@ -14337,7 +14336,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="342" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A342" s="13" t="s">
         <v>497</v>
       </c>
@@ -14372,7 +14371,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="343" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A343" s="13" t="s">
         <v>497</v>
       </c>
@@ -14407,7 +14406,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="344" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A344" s="13" t="s">
         <v>497</v>
       </c>
@@ -14442,7 +14441,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="345" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A345" s="13" t="s">
         <v>497</v>
       </c>
@@ -14477,7 +14476,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="346" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A346" s="13" t="s">
         <v>497</v>
       </c>
@@ -14512,7 +14511,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="347" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A347" s="13" t="s">
         <v>497</v>
       </c>
@@ -14547,7 +14546,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="348" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A348" s="13" t="s">
         <v>497</v>
       </c>
@@ -14582,7 +14581,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="349" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A349" s="13" t="s">
         <v>497</v>
       </c>
@@ -14617,7 +14616,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="350" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A350" s="13" t="s">
         <v>497</v>
       </c>
@@ -14652,7 +14651,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="351" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A351" s="13" t="s">
         <v>497</v>
       </c>
@@ -14687,7 +14686,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="352" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A352" s="13" t="s">
         <v>497</v>
       </c>
@@ -14722,7 +14721,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="353" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A353" s="13" t="s">
         <v>497</v>
       </c>
@@ -14757,7 +14756,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="354" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A354" s="13" t="s">
         <v>497</v>
       </c>
@@ -14792,7 +14791,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>497</v>
       </c>
@@ -14827,7 +14826,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>497</v>
       </c>
@@ -14862,7 +14861,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>497</v>
       </c>
@@ -14895,7 +14894,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>497</v>
       </c>
@@ -14928,7 +14927,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>497</v>
       </c>
@@ -14961,7 +14960,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>497</v>
       </c>
@@ -14994,7 +14993,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>497</v>
       </c>
@@ -15027,7 +15026,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>497</v>
       </c>
@@ -15062,7 +15061,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>497</v>
       </c>
@@ -15363,7 +15362,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>497</v>
       </c>
@@ -15398,7 +15397,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="372" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A372" s="13" t="s">
         <v>497</v>
       </c>
@@ -15433,7 +15432,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="373" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A373" s="13" t="s">
         <v>497</v>
       </c>
@@ -15468,7 +15467,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="374" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A374" s="13" t="s">
         <v>497</v>
       </c>
@@ -15503,7 +15502,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="375" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A375" s="13" t="s">
         <v>497</v>
       </c>
@@ -15538,7 +15537,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="376" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A376" s="13" t="s">
         <v>497</v>
       </c>
@@ -15573,7 +15572,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="377" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A377" s="13" t="s">
         <v>497</v>
       </c>
@@ -15608,7 +15607,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>497</v>
       </c>
@@ -15643,7 +15642,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>497</v>
       </c>
@@ -15678,7 +15677,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>497</v>
       </c>
@@ -15713,7 +15712,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>497</v>
       </c>
@@ -15748,7 +15747,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>497</v>
       </c>
@@ -15783,7 +15782,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>497</v>
       </c>
@@ -15818,7 +15817,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>497</v>
       </c>
@@ -15853,7 +15852,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>497</v>
       </c>
@@ -15888,7 +15887,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>497</v>
       </c>
@@ -15923,7 +15922,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>497</v>
       </c>
@@ -15958,7 +15957,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>497</v>
       </c>
@@ -15993,7 +15992,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>497</v>
       </c>
@@ -16028,7 +16027,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>497</v>
       </c>
@@ -16061,7 +16060,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="391" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A391" s="13" t="s">
         <v>497</v>
       </c>
@@ -16096,7 +16095,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="392" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A392" s="13" t="s">
         <v>497</v>
       </c>
@@ -16131,7 +16130,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="393" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A393" s="13" t="s">
         <v>497</v>
       </c>
@@ -16166,7 +16165,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="394" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A394" s="13" t="s">
         <v>497</v>
       </c>
@@ -16201,7 +16200,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="395" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A395" s="13" t="s">
         <v>497</v>
       </c>
@@ -16680,7 +16679,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>497</v>
       </c>
@@ -16715,7 +16714,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>497</v>
       </c>
@@ -16750,7 +16749,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>497</v>
       </c>
@@ -16785,7 +16784,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>497</v>
       </c>
@@ -16820,7 +16819,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="412" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A412" s="13" t="s">
         <v>497</v>
       </c>
@@ -16855,7 +16854,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="413" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A413" s="13" t="s">
         <v>497</v>
       </c>
@@ -16890,7 +16889,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="414" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A414" s="13" t="s">
         <v>497</v>
       </c>
@@ -16925,7 +16924,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="415" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A415" s="13" t="s">
         <v>497</v>
       </c>
@@ -16960,7 +16959,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="416" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A416" s="13" t="s">
         <v>497</v>
       </c>
@@ -16995,7 +16994,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="417" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A417" s="13" t="s">
         <v>497</v>
       </c>
@@ -17030,7 +17029,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="418" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A418" s="13" t="s">
         <v>497</v>
       </c>
@@ -17065,7 +17064,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="419" spans="1:11" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A419" s="13" t="s">
         <v>497</v>
       </c>
@@ -17101,16 +17100,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L419" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="biosphere3_spatialized_flows"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L419">
-      <sortCondition ref="C1:C419"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17120,8 +17109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7552F2-809E-47BC-A2F4-BF83969FDA26}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
